--- a/result/forcast_result.xlsx
+++ b/result/forcast_result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>no</t>
   </si>
@@ -43,87 +44,83 @@
     <t>last_pred_ratio</t>
   </si>
   <si>
-    <t>2018.09.07</t>
+    <t>2018.09.11</t>
   </si>
   <si>
     <t>010140</t>
   </si>
   <si>
+    <t>삼성중공업</t>
+  </si>
+  <si>
+    <t>(-0.71%)</t>
+  </si>
+  <si>
     <t>000270</t>
   </si>
   <si>
+    <t>기아자동차</t>
+  </si>
+  <si>
+    <t>(-0.63%)</t>
+  </si>
+  <si>
     <t>063080</t>
   </si>
   <si>
+    <t>게임빌</t>
+  </si>
+  <si>
+    <t>(-3.35%)</t>
+  </si>
+  <si>
     <t>085370</t>
   </si>
   <si>
+    <t>루트로닉</t>
+  </si>
+  <si>
+    <t>(-5.87%)</t>
+  </si>
+  <si>
     <t>003520</t>
   </si>
   <si>
+    <t>영진약품</t>
+  </si>
+  <si>
+    <t>(-0.05%)</t>
+  </si>
+  <si>
     <t>045390</t>
   </si>
   <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
-    <t>기아자동차</t>
-  </si>
-  <si>
-    <t>게임빌</t>
-  </si>
-  <si>
-    <t>루트로닉</t>
-  </si>
-  <si>
-    <t>영진약품</t>
-  </si>
-  <si>
     <t>대아티아이</t>
   </si>
   <si>
-    <t>(-2.72%)</t>
-  </si>
-  <si>
-    <t>(-4.15%)</t>
-  </si>
-  <si>
-    <t>(0.86%)</t>
-  </si>
-  <si>
-    <t>(-2.31%)</t>
-  </si>
-  <si>
-    <t>(0.65%)</t>
-  </si>
-  <si>
-    <t>(-3.51%)</t>
+    <t>(-1.09%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -138,35 +135,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -454,12 +442,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -491,7 +485,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -501,170 +495,170 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>0.01401477586477995</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01389252115041018</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>7510</v>
       </c>
-      <c r="H2">
-        <v>7305.8935546875</v>
+      <c r="H2" t="n">
+        <v>7456.974609375</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>0.01805364340543747</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01804523915052414</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>34250</v>
-      </c>
-      <c r="H3">
-        <v>32830.25</v>
+      <c r="G3" t="n">
+        <v>34050</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33833.94921875</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01233930140733719</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52192.83203125</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0.01236270740628242</v>
-      </c>
-      <c r="F4">
-        <v>1009</v>
-      </c>
-      <c r="G4">
-        <v>50900</v>
-      </c>
-      <c r="H4">
-        <v>51336.37109375</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0.01955573447048664</v>
-      </c>
-      <c r="F5">
-        <v>222</v>
-      </c>
-      <c r="G5">
-        <v>12500</v>
-      </c>
-      <c r="H5">
-        <v>12211.4189453125</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01931905560195446</v>
+      </c>
+      <c r="F5" t="n">
+        <v>237</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13350</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12566.638671875</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0.02036312408745289</v>
-      </c>
-      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02035475336015224</v>
+      </c>
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>7990</v>
-      </c>
-      <c r="H6">
-        <v>8041.87890625</v>
+      <c r="G6" t="n">
+        <v>7980</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7975.8896484375</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0.01472454983741045</v>
-      </c>
-      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.01491846330463886</v>
+      </c>
+      <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>8610</v>
-      </c>
-      <c r="H7">
-        <v>8307.9169921875</v>
+      <c r="G7" t="n">
+        <v>9170</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9070.2705078125</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/result/forcast_result.xlsx
+++ b/result/forcast_result.xlsx
@@ -44,7 +44,7 @@
     <t>last_pred_ratio</t>
   </si>
   <si>
-    <t>2018.09.11</t>
+    <t>2018.09.12</t>
   </si>
   <si>
     <t>010140</t>
@@ -53,7 +53,7 @@
     <t>삼성중공업</t>
   </si>
   <si>
-    <t>(-0.71%)</t>
+    <t>(-1.67%)</t>
   </si>
   <si>
     <t>000270</t>
@@ -62,7 +62,7 @@
     <t>기아자동차</t>
   </si>
   <si>
-    <t>(-0.63%)</t>
+    <t>(0.26%)</t>
   </si>
   <si>
     <t>063080</t>
@@ -71,7 +71,7 @@
     <t>게임빌</t>
   </si>
   <si>
-    <t>(-3.35%)</t>
+    <t>(0.30%)</t>
   </si>
   <si>
     <t>085370</t>
@@ -80,7 +80,7 @@
     <t>루트로닉</t>
   </si>
   <si>
-    <t>(-5.87%)</t>
+    <t>(-3.53%)</t>
   </si>
   <si>
     <t>003520</t>
@@ -89,7 +89,7 @@
     <t>영진약품</t>
   </si>
   <si>
-    <t>(-0.05%)</t>
+    <t>(0.32%)</t>
   </si>
   <si>
     <t>045390</t>
@@ -98,7 +98,7 @@
     <t>대아티아이</t>
   </si>
   <si>
-    <t>(-1.09%)</t>
+    <t>(-5.01%)</t>
   </si>
 </sst>
 </file>
@@ -498,16 +498,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01389252115041018</v>
+        <v>0.01386145502328873</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7510</v>
+        <v>7660</v>
       </c>
       <c r="H2" t="n">
-        <v>7456.974609375</v>
+        <v>7532.416015625</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -527,16 +527,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01804523915052414</v>
+        <v>0.01804442517459393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34050</v>
+        <v>34400</v>
       </c>
       <c r="H3" t="n">
-        <v>33833.94921875</v>
+        <v>34488.671875</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -556,16 +556,16 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01233930140733719</v>
+        <v>0.01232840772718191</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>54000</v>
+        <v>52800</v>
       </c>
       <c r="H4" t="n">
-        <v>52192.83203125</v>
+        <v>52957.765625</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -585,16 +585,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01931905560195446</v>
+        <v>0.01924487203359604</v>
       </c>
       <c r="F5" t="n">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="G5" t="n">
-        <v>13350</v>
+        <v>13200</v>
       </c>
       <c r="H5" t="n">
-        <v>12566.638671875</v>
+        <v>12733.5673828125</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -614,16 +614,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02035475336015224</v>
+        <v>0.02035514079034328</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7980</v>
+        <v>8050</v>
       </c>
       <c r="H6" t="n">
-        <v>7975.8896484375</v>
+        <v>8075.57958984375</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -643,16 +643,16 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01491846330463886</v>
+        <v>0.01491991430521011</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9170</v>
+        <v>9160</v>
       </c>
       <c r="H7" t="n">
-        <v>9070.2705078125</v>
+        <v>8700.767578125</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>

--- a/result/forcast_result.xlsx
+++ b/result/forcast_result.xlsx
@@ -53,7 +53,7 @@
     <t>삼성중공업</t>
   </si>
   <si>
-    <t>(-1.67%)</t>
+    <t>(-1.79%)</t>
   </si>
   <si>
     <t>000270</t>
@@ -71,7 +71,7 @@
     <t>게임빌</t>
   </si>
   <si>
-    <t>(0.30%)</t>
+    <t>(0.48%)</t>
   </si>
   <si>
     <t>085370</t>
@@ -98,7 +98,7 @@
     <t>대아티아이</t>
   </si>
   <si>
-    <t>(-5.01%)</t>
+    <t>(-4.50%)</t>
   </si>
 </sst>
 </file>
@@ -498,16 +498,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01386145502328873</v>
+        <v>0.01386150252074003</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7660</v>
+        <v>7670</v>
       </c>
       <c r="H2" t="n">
-        <v>7532.416015625</v>
+        <v>7532.45849609375</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01804442517459393</v>
+        <v>0.01804432459175587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>34400</v>
       </c>
       <c r="H3" t="n">
-        <v>34488.671875</v>
+        <v>34488.703125</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -556,16 +556,16 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01232840772718191</v>
+        <v>0.01204053964465857</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="G4" t="n">
         <v>52800</v>
       </c>
       <c r="H4" t="n">
-        <v>52957.765625</v>
+        <v>53052.8046875</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -585,16 +585,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01924487203359604</v>
+        <v>0.01924487762153149</v>
       </c>
       <c r="F5" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>13200</v>
       </c>
       <c r="H5" t="n">
-        <v>12733.5673828125</v>
+        <v>12733.69921875</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -623,7 +623,7 @@
         <v>8050</v>
       </c>
       <c r="H6" t="n">
-        <v>8075.57958984375</v>
+        <v>8075.58544921875</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -643,16 +643,16 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01491991430521011</v>
+        <v>0.01491365674883127</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>9160</v>
       </c>
       <c r="H7" t="n">
-        <v>8700.767578125</v>
+        <v>8747.74609375</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>

--- a/result/forcast_result.xlsx
+++ b/result/forcast_result.xlsx
@@ -44,7 +44,7 @@
     <t>last_pred_ratio</t>
   </si>
   <si>
-    <t>2018.09.12</t>
+    <t>2018.09.13</t>
   </si>
   <si>
     <t>010140</t>
@@ -53,7 +53,7 @@
     <t>삼성중공업</t>
   </si>
   <si>
-    <t>(-1.79%)</t>
+    <t>(-3.13%)</t>
   </si>
   <si>
     <t>000270</t>
@@ -62,7 +62,7 @@
     <t>기아자동차</t>
   </si>
   <si>
-    <t>(0.26%)</t>
+    <t>(1.77%)</t>
   </si>
   <si>
     <t>063080</t>
@@ -71,7 +71,7 @@
     <t>게임빌</t>
   </si>
   <si>
-    <t>(0.48%)</t>
+    <t>(-0.30%)</t>
   </si>
   <si>
     <t>085370</t>
@@ -80,7 +80,7 @@
     <t>루트로닉</t>
   </si>
   <si>
-    <t>(-3.53%)</t>
+    <t>(-7.31%)</t>
   </si>
   <si>
     <t>003520</t>
@@ -89,7 +89,7 @@
     <t>영진약품</t>
   </si>
   <si>
-    <t>(0.32%)</t>
+    <t>(0.73%)</t>
   </si>
   <si>
     <t>045390</t>
@@ -98,7 +98,7 @@
     <t>대아티아이</t>
   </si>
   <si>
-    <t>(-4.50%)</t>
+    <t>(-3.65%)</t>
   </si>
 </sst>
 </file>
@@ -498,16 +498,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01386150252074003</v>
+        <v>0.01385947689414024</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>7670</v>
+        <v>7800</v>
       </c>
       <c r="H2" t="n">
-        <v>7532.45849609375</v>
+        <v>7555.49365234375</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -527,16 +527,16 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01804432459175587</v>
+        <v>0.01802943833172321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34400</v>
+        <v>34150</v>
       </c>
       <c r="H3" t="n">
-        <v>34488.703125</v>
+        <v>34755.58203125</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -556,16 +556,16 @@
         <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01204053964465857</v>
+        <v>0.01198577973991632</v>
       </c>
       <c r="F4" t="n">
-        <v>999</v>
+        <v>240</v>
       </c>
       <c r="G4" t="n">
-        <v>52800</v>
+        <v>53500</v>
       </c>
       <c r="H4" t="n">
-        <v>53052.8046875</v>
+        <v>53338.28125</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -585,16 +585,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01924487762153149</v>
+        <v>0.01925533264875412</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13200</v>
+        <v>13950</v>
       </c>
       <c r="H5" t="n">
-        <v>12733.69921875</v>
+        <v>12930.0341796875</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -614,16 +614,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02035514079034328</v>
+        <v>0.020356310531497</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8050</v>
+        <v>7950</v>
       </c>
       <c r="H6" t="n">
-        <v>8075.58544921875</v>
+        <v>8007.845703125</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
@@ -643,16 +643,16 @@
         <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01491365674883127</v>
+        <v>0.01493302546441555</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9160</v>
+        <v>9050</v>
       </c>
       <c r="H7" t="n">
-        <v>8747.74609375</v>
+        <v>8719.326171875</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
